--- a/Excel-XLSX/UN-MOZ.xlsx
+++ b/Excel-XLSX/UN-MOZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="768">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>O60Grh</t>
+    <t>jHo05Y</t>
   </si>
   <si>
     <t>1975</t>
@@ -2253,7 +2253,10 @@
     <t>1083</t>
   </si>
   <si>
-    <t>7474</t>
+    <t>7476</t>
+  </si>
+  <si>
+    <t>799</t>
   </si>
   <si>
     <t>430</t>
@@ -2265,13 +2268,13 @@
     <t>432</t>
   </si>
   <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>6481</t>
-  </si>
-  <si>
-    <t>451</t>
+    <t>2936</t>
+  </si>
+  <si>
+    <t>6404</t>
+  </si>
+  <si>
+    <t>780</t>
   </si>
   <si>
     <t>433</t>
@@ -2298,19 +2301,19 @@
     <t>438</t>
   </si>
   <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>2655</t>
+    <t>851</t>
+  </si>
+  <si>
+    <t>2669</t>
   </si>
   <si>
     <t>439</t>
   </si>
   <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>1690</t>
+    <t>476</t>
+  </si>
+  <si>
+    <t>1776</t>
   </si>
   <si>
     <t>440</t>
@@ -31928,7 +31931,7 @@
         <v>745</v>
       </c>
       <c r="P430" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Q430" s="2" t="s">
         <v>33</v>
@@ -31940,7 +31943,7 @@
         <v>33</v>
       </c>
       <c r="T430" s="2" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="U430" s="1" t="s">
         <v>34</v>
@@ -31960,7 +31963,7 @@
         <v>22</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>743</v>
@@ -32028,7 +32031,7 @@
         <v>22</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>743</v>
@@ -32096,7 +32099,7 @@
         <v>22</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>743</v>
@@ -32126,10 +32129,10 @@
         <v>31</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O433" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P433" s="2" t="s">
         <v>33</v>
@@ -32144,7 +32147,7 @@
         <v>33</v>
       </c>
       <c r="T433" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="U433" s="1" t="s">
         <v>34</v>
@@ -32164,22 +32167,22 @@
         <v>22</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>743</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>584</v>
+        <v>157</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>585</v>
+        <v>158</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>586</v>
+        <v>158</v>
       </c>
       <c r="J434" s="2" t="s">
         <v>29</v>
@@ -32197,7 +32200,7 @@
         <v>33</v>
       </c>
       <c r="O434" s="2" t="s">
-        <v>696</v>
+        <v>64</v>
       </c>
       <c r="P434" s="2" t="s">
         <v>33</v>
@@ -32232,22 +32235,22 @@
         <v>22</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>743</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>157</v>
+        <v>690</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>158</v>
+        <v>691</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>158</v>
+        <v>692</v>
       </c>
       <c r="J435" s="2" t="s">
         <v>29</v>
@@ -32300,22 +32303,22 @@
         <v>22</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>743</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>690</v>
+        <v>392</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>691</v>
+        <v>393</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>692</v>
+        <v>394</v>
       </c>
       <c r="J436" s="2" t="s">
         <v>29</v>
@@ -32333,7 +32336,7 @@
         <v>33</v>
       </c>
       <c r="O436" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P436" s="2" t="s">
         <v>33</v>
@@ -32368,22 +32371,22 @@
         <v>22</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>743</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H437" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J437" s="2" t="s">
         <v>29</v>
@@ -32401,7 +32404,7 @@
         <v>33</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>49</v>
+        <v>741</v>
       </c>
       <c r="P437" s="2" t="s">
         <v>33</v>
@@ -32436,7 +32439,7 @@
         <v>22</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>743</v>
@@ -32475,10 +32478,10 @@
         <v>33</v>
       </c>
       <c r="Q438" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="R438" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="S438" s="2" t="s">
         <v>33</v>
@@ -32504,7 +32507,7 @@
         <v>22</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>743</v>
@@ -32534,10 +32537,10 @@
         <v>31</v>
       </c>
       <c r="N439" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O439" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P439" s="2" t="s">
         <v>33</v>
@@ -32552,7 +32555,7 @@
         <v>33</v>
       </c>
       <c r="T439" s="2" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="U439" s="1" t="s">
         <v>34</v>
@@ -32572,7 +32575,7 @@
         <v>22</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>743</v>
@@ -32602,10 +32605,10 @@
         <v>31</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P440" s="2" t="s">
         <v>33</v>
@@ -32620,7 +32623,7 @@
         <v>33</v>
       </c>
       <c r="T440" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="U440" s="1" t="s">
         <v>34</v>
@@ -32640,7 +32643,7 @@
         <v>22</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>743</v>
@@ -32673,7 +32676,7 @@
         <v>49</v>
       </c>
       <c r="O441" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P441" s="2" t="s">
         <v>33</v>
@@ -32688,7 +32691,7 @@
         <v>33</v>
       </c>
       <c r="T441" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="U441" s="1" t="s">
         <v>34</v>
@@ -32708,7 +32711,7 @@
         <v>22</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>743</v>
@@ -32809,7 +32812,7 @@
         <v>33</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P443" s="2" t="s">
         <v>33</v>
@@ -32877,7 +32880,7 @@
         <v>33</v>
       </c>
       <c r="O444" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P444" s="2" t="s">
         <v>33</v>
